--- a/altmetric/bascket_of_8.xlsx
+++ b/altmetric/bascket_of_8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdimoqri/pr/Research-Impact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdimoqri/pr/Research-Impact/altmetric/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1274,7 +1274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,6 +1291,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1313,9 +1321,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1327,7 +1338,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1656,7 +1670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -2096,11 +2110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A46" zoomScale="106" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E65" sqref="A1:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,7 +2156,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2228,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2336,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,7 +2372,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +2408,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +2480,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +2552,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2624,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2660,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -2683,7 +2696,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2719,7 +2732,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2755,7 +2768,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2791,7 +2804,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -2827,7 +2840,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -2899,7 +2912,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2935,7 +2948,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2971,7 +2984,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3056,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -3187,7 +3200,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -3223,7 +3236,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -3259,7 +3272,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3308,7 @@
         <v>MIS Quarterly</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
@@ -3475,7 +3488,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
@@ -3547,7 +3560,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
@@ -3583,7 +3596,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>144</v>
       </c>
@@ -3619,7 +3632,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -3655,7 +3668,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>150</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>155</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>157</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
@@ -3835,7 +3848,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
@@ -3907,7 +3920,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -3943,7 +3956,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
@@ -3979,7 +3992,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
@@ -4015,7 +4028,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>186</v>
       </c>
@@ -4051,7 +4064,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>190</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>192</v>
       </c>
@@ -4123,7 +4136,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
@@ -4159,7 +4172,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>198</v>
       </c>
@@ -4195,7 +4208,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>200</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>202</v>
       </c>
@@ -4267,7 +4280,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>206</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>211</v>
       </c>
@@ -4339,7 +4352,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>215</v>
       </c>
@@ -4375,7 +4388,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>219</v>
       </c>
@@ -4447,7 +4460,7 @@
         <v>Journal of Information Technology</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>223</v>
       </c>
@@ -4483,7 +4496,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>225</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>227</v>
       </c>
@@ -4555,7 +4568,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -4591,7 +4604,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>231</v>
       </c>
@@ -4627,7 +4640,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>233</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>237</v>
       </c>
@@ -4699,7 +4712,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>241</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -4771,7 +4784,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
@@ -4807,7 +4820,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -4879,7 +4892,7 @@
         <v>Journal of Information Technology</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>257</v>
       </c>
@@ -4915,7 +4928,7 @@
         <v>Information Systems Journal</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>261</v>
       </c>
@@ -4951,7 +4964,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -4987,7 +5000,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>263</v>
       </c>
@@ -5023,7 +5036,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>267</v>
       </c>
@@ -5059,7 +5072,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>271</v>
       </c>
@@ -5095,7 +5108,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>29</v>
       </c>
@@ -5131,7 +5144,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>275</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>279</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>Journal of Information Technology</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>285</v>
       </c>
@@ -5275,7 +5288,7 @@
         <v>European Journal of Information Systems</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>289</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
@@ -5347,7 +5360,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>295</v>
       </c>
@@ -5383,7 +5396,7 @@
         <v>The Journal of Strategic Information Systems</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>299</v>
       </c>
@@ -5419,7 +5432,7 @@
         <v>Information Systems Research</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>301</v>
       </c>
@@ -5455,7 +5468,7 @@
         <v>Journal of Management Information Systems</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>305</v>
       </c>
@@ -5492,13 +5505,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J94">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Journal of Information Technology"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="J1:J94"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
@@ -5595,6 +5602,7 @@
     <hyperlink ref="F94" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5602,8 +5610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E979"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13317,6 +13325,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13324,8 +13333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14389,5 +14398,6 @@
     <hyperlink ref="D61" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>